--- a/test.xlsx
+++ b/test.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,10 +520,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
